--- a/Prototypes/Canola/GenomicsPhenology.xlsx
+++ b/Prototypes/Canola/GenomicsPhenology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lil026\ApsimX\Prototypes\Canola\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AF3975-8263-4348-A1F2-B556E6F03E37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38178A8E-C11E-4321-BD50-C9D06BE6CE62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{2EF320CE-7ABE-42F3-AF68-7A3FE40785D1}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="38640" windowHeight="21240" xr2:uid="{2EF320CE-7ABE-42F3-AF68-7A3FE40785D1}"/>
   </bookViews>
   <sheets>
     <sheet name="OBSPhenology" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OBSLeafAppearance!$A$1:$L$631</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OBSPhenology!$A$1:$N$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4366" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4368" uniqueCount="143">
   <si>
     <t>SimulationName</t>
   </si>
@@ -462,6 +463,12 @@
   <si>
     <t>York2020TOS20-MayCvATR_Gem</t>
   </si>
+  <si>
+    <t>Exclude</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
 </sst>
 </file>
 
@@ -813,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14EF01D-4333-43EA-8852-85C5FAA2F335}">
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +843,7 @@
     <col min="13" max="13" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -876,8 +883,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -917,8 +927,11 @@
       <c r="M2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -959,7 +972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1000,7 +1013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -1019,9 +1032,6 @@
       <c r="F5">
         <v>116</v>
       </c>
-      <c r="G5">
-        <v>148</v>
-      </c>
       <c r="H5">
         <v>28</v>
       </c>
@@ -1040,8 +1050,11 @@
       <c r="M5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -1082,7 +1095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -1123,7 +1136,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -1163,8 +1176,11 @@
       <c r="M8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -1205,7 +1221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -1246,7 +1262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1287,7 +1303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1328,7 +1344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1368,8 +1384,11 @@
       <c r="M13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1410,7 +1429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1451,7 +1470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1492,7 +1511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1533,7 +1552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1552,9 +1571,6 @@
       <c r="F18">
         <v>95</v>
       </c>
-      <c r="G18">
-        <v>137</v>
-      </c>
       <c r="H18">
         <v>28</v>
       </c>
@@ -1573,8 +1589,11 @@
       <c r="M18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1593,9 +1612,6 @@
       <c r="F19">
         <v>68</v>
       </c>
-      <c r="G19">
-        <v>99</v>
-      </c>
       <c r="H19">
         <v>28</v>
       </c>
@@ -1614,8 +1630,11 @@
       <c r="M19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1656,7 +1675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1697,7 +1716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1716,9 +1735,6 @@
       <c r="F22">
         <v>60</v>
       </c>
-      <c r="G22">
-        <v>148</v>
-      </c>
       <c r="H22">
         <v>28</v>
       </c>
@@ -1737,8 +1753,11 @@
       <c r="M22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1779,7 +1798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1820,7 +1839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1861,7 +1880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1902,7 +1921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -1943,7 +1962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>120</v>
       </c>
@@ -1984,7 +2003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>132</v>
       </c>
@@ -2025,7 +2044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>133</v>
       </c>
@@ -2066,7 +2085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2085,9 +2104,6 @@
       <c r="F31">
         <v>56</v>
       </c>
-      <c r="G31">
-        <v>74</v>
-      </c>
       <c r="H31">
         <v>17</v>
       </c>
@@ -2106,8 +2122,11 @@
       <c r="M31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2126,9 +2145,6 @@
       <c r="F32">
         <v>68</v>
       </c>
-      <c r="G32">
-        <v>78</v>
-      </c>
       <c r="H32">
         <v>14</v>
       </c>
@@ -2146,6 +2162,9 @@
       </c>
       <c r="M32" t="s">
         <v>19</v>
+      </c>
+      <c r="N32">
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -5183,16 +5202,17 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N106" xr:uid="{BCFA0856-B878-4A28-B408-F40C8F5EA065}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B5B9EA-70C2-4333-AA33-B5A6A85DE8B6}">
-  <dimension ref="A1:L602"/>
+  <dimension ref="A1:M602"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L816"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5202,7 +5222,7 @@
     <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5239,8 +5259,11 @@
       <c r="L1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5278,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5316,7 +5339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -5354,7 +5377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -5392,7 +5415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -5430,7 +5453,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -5468,7 +5491,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -5506,7 +5529,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5544,7 +5567,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5582,7 +5605,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -5620,7 +5643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -5658,7 +5681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5696,7 +5719,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -5734,7 +5757,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -5772,7 +5795,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>

--- a/Prototypes/Canola/GenomicsPhenology.xlsx
+++ b/Prototypes/Canola/GenomicsPhenology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lil026\ApsimX\Prototypes\Canola\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Prototypes\Canola\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38178A8E-C11E-4321-BD50-C9D06BE6CE62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2282F06-EB8F-4B1C-9B27-60294EDE6DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="38640" windowHeight="21240" xr2:uid="{2EF320CE-7ABE-42F3-AF68-7A3FE40785D1}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{2EF320CE-7ABE-42F3-AF68-7A3FE40785D1}"/>
   </bookViews>
   <sheets>
     <sheet name="OBSPhenology" sheetId="1" r:id="rId1"/>
@@ -380,9 +380,6 @@
     <t>Clock.Today</t>
   </si>
   <si>
-    <t>LeafNumber</t>
-  </si>
-  <si>
     <t>Canola.Leaf.NodeNumber</t>
   </si>
   <si>
@@ -468,6 +465,9 @@
   </si>
   <si>
     <t>junk</t>
+  </si>
+  <si>
+    <t>Canola.Leaf.TrueLeafNumber</t>
   </si>
 </sst>
 </file>
@@ -822,28 +822,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14EF01D-4333-43EA-8852-85C5FAA2F335}">
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5859375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.29296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.87890625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.29296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.41015625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.29296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -884,10 +884,10 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -931,7 +931,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -972,7 +972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1013,12 +1013,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
         <v>115</v>
-      </c>
-      <c r="B5" t="s">
-        <v>116</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -1054,12 +1054,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1095,12 +1095,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -1136,12 +1136,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
         <v>128</v>
-      </c>
-      <c r="B8" t="s">
-        <v>129</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1180,12 +1180,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1221,12 +1221,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1262,7 +1262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1921,12 +1921,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
@@ -1962,12 +1962,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
@@ -2003,12 +2003,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
@@ -2044,12 +2044,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
@@ -2085,7 +2085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -2782,12 +2782,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
         <v>15</v>
@@ -2823,12 +2823,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
         <v>21</v>
@@ -2864,12 +2864,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
         <v>25</v>
@@ -2905,12 +2905,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
@@ -2946,12 +2946,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C52" t="s">
         <v>21</v>
@@ -2987,12 +2987,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
         <v>25</v>
@@ -3028,7 +3028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -3643,12 +3643,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
         <v>15</v>
@@ -3684,12 +3684,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
         <v>21</v>
@@ -3725,12 +3725,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
@@ -3766,12 +3766,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
         <v>21</v>
@@ -3807,7 +3807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>92</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>93</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>94</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -4463,12 +4463,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C89" t="s">
         <v>15</v>
@@ -4504,12 +4504,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C90" t="s">
         <v>21</v>
@@ -4545,12 +4545,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s">
         <v>15</v>
@@ -4586,12 +4586,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C92" t="s">
         <v>21</v>
@@ -4627,7 +4627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>100</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -5211,18 +5211,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B5B9EA-70C2-4333-AA33-B5A6A85DE8B6}">
   <dimension ref="A1:M602"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5254,16 +5254,16 @@
         <v>112</v>
       </c>
       <c r="K1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" t="s">
         <v>113</v>
       </c>
-      <c r="L1" t="s">
-        <v>114</v>
-      </c>
       <c r="M1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -5871,12 +5871,12 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
         <v>115</v>
-      </c>
-      <c r="B18" t="s">
-        <v>116</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
@@ -5909,12 +5909,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s">
         <v>115</v>
-      </c>
-      <c r="B19" t="s">
-        <v>116</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -5947,12 +5947,12 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
         <v>115</v>
-      </c>
-      <c r="B20" t="s">
-        <v>116</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -5985,12 +5985,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -6023,12 +6023,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -6061,12 +6061,12 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
@@ -6099,12 +6099,12 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
@@ -6137,12 +6137,12 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
@@ -6175,12 +6175,12 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
         <v>21</v>
@@ -6213,12 +6213,12 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
@@ -6251,12 +6251,12 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
@@ -6289,12 +6289,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
@@ -6327,12 +6327,12 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
@@ -6365,12 +6365,12 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
@@ -6403,12 +6403,12 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
         <v>25</v>
@@ -6441,12 +6441,12 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
@@ -6479,12 +6479,12 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
@@ -6517,12 +6517,12 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" t="s">
         <v>128</v>
-      </c>
-      <c r="B35" t="s">
-        <v>129</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
@@ -6555,12 +6555,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" t="s">
         <v>128</v>
-      </c>
-      <c r="B36" t="s">
-        <v>129</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
@@ -6593,12 +6593,12 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
         <v>128</v>
-      </c>
-      <c r="B37" t="s">
-        <v>129</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
@@ -6631,12 +6631,12 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
         <v>21</v>
@@ -6669,12 +6669,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
         <v>21</v>
@@ -6707,12 +6707,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
         <v>21</v>
@@ -6745,12 +6745,12 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
         <v>21</v>
@@ -6783,12 +6783,12 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
         <v>21</v>
@@ -6821,12 +6821,12 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
         <v>21</v>
@@ -6859,12 +6859,12 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
         <v>21</v>
@@ -6897,12 +6897,12 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
@@ -6935,12 +6935,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
@@ -6973,12 +6973,12 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
         <v>25</v>
@@ -7011,12 +7011,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
         <v>25</v>
@@ -7049,12 +7049,12 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C49" t="s">
         <v>25</v>
@@ -7087,12 +7087,12 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" t="s">
         <v>25</v>
@@ -7125,7 +7125,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>31</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>31</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>33</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>33</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>33</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>33</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>33</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>34</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>35</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>35</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>35</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>37</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>37</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>37</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>37</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>37</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>37</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>38</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>38</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>38</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>38</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>38</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
         <v>38</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
         <v>38</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
         <v>39</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
         <v>39</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
         <v>39</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
         <v>39</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
         <v>41</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
         <v>41</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
         <v>41</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
         <v>41</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
         <v>41</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
         <v>41</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
         <v>41</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
         <v>42</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
         <v>42</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
         <v>42</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
         <v>42</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
         <v>42</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
         <v>42</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A129" t="s">
         <v>42</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A130" t="s">
         <v>43</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A131" t="s">
         <v>43</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A132" t="s">
         <v>43</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A133" t="s">
         <v>43</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A134" t="s">
         <v>43</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A135" t="s">
         <v>43</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A136" t="s">
         <v>43</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A137" t="s">
         <v>46</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A138" t="s">
         <v>46</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A139" t="s">
         <v>46</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A140" t="s">
         <v>46</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A141" t="s">
         <v>46</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A142" t="s">
         <v>46</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A143" t="s">
         <v>46</v>
       </c>
@@ -10659,12 +10659,12 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A144" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B144" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C144" t="s">
         <v>15</v>
@@ -10697,12 +10697,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A145" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B145" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C145" t="s">
         <v>15</v>
@@ -10735,12 +10735,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A146" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B146" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
@@ -10773,12 +10773,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A147" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B147" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C147" t="s">
         <v>15</v>
@@ -10811,12 +10811,12 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A148" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B148" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C148" t="s">
         <v>15</v>
@@ -10849,12 +10849,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A149" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B149" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C149" t="s">
         <v>15</v>
@@ -10887,12 +10887,12 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A150" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B150" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C150" t="s">
         <v>15</v>
@@ -10925,12 +10925,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A151" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B151" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C151" t="s">
         <v>21</v>
@@ -10963,12 +10963,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A152" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B152" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C152" t="s">
         <v>21</v>
@@ -11001,12 +11001,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B153" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C153" t="s">
         <v>21</v>
@@ -11039,12 +11039,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A154" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B154" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C154" t="s">
         <v>21</v>
@@ -11077,12 +11077,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A155" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B155" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C155" t="s">
         <v>21</v>
@@ -11115,12 +11115,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A156" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B156" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C156" t="s">
         <v>21</v>
@@ -11153,12 +11153,12 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A157" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B157" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C157" t="s">
         <v>21</v>
@@ -11191,12 +11191,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A158" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B158" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C158" t="s">
         <v>15</v>
@@ -11229,12 +11229,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A159" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B159" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C159" t="s">
         <v>15</v>
@@ -11267,12 +11267,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A160" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B160" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C160" t="s">
         <v>15</v>
@@ -11305,12 +11305,12 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A161" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B161" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C161" t="s">
         <v>15</v>
@@ -11343,12 +11343,12 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A162" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B162" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C162" t="s">
         <v>15</v>
@@ -11381,12 +11381,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A163" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B163" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C163" t="s">
         <v>15</v>
@@ -11419,12 +11419,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A164" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B164" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C164" t="s">
         <v>15</v>
@@ -11457,12 +11457,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A165" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B165" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C165" t="s">
         <v>21</v>
@@ -11495,12 +11495,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A166" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B166" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C166" t="s">
         <v>21</v>
@@ -11533,12 +11533,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A167" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B167" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C167" t="s">
         <v>21</v>
@@ -11571,12 +11571,12 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A168" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B168" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C168" t="s">
         <v>21</v>
@@ -11609,12 +11609,12 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A169" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B169" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C169" t="s">
         <v>21</v>
@@ -11647,12 +11647,12 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A170" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B170" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C170" t="s">
         <v>21</v>
@@ -11685,12 +11685,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A171" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B171" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C171" t="s">
         <v>21</v>
@@ -11723,7 +11723,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A172" t="s">
         <v>48</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A173" t="s">
         <v>48</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A174" t="s">
         <v>48</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A175" t="s">
         <v>48</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A176" t="s">
         <v>48</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A177" t="s">
         <v>48</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A178" t="s">
         <v>48</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A179" t="s">
         <v>49</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A180" t="s">
         <v>49</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A181" t="s">
         <v>49</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A182" t="s">
         <v>49</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A183" t="s">
         <v>49</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A184" t="s">
         <v>49</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A185" t="s">
         <v>43</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A186" t="s">
         <v>43</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A187" t="s">
         <v>43</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A188" t="s">
         <v>43</v>
       </c>
@@ -12369,7 +12369,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A189" t="s">
         <v>43</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A190" t="s">
         <v>43</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A191" t="s">
         <v>46</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A192" t="s">
         <v>46</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A193" t="s">
         <v>46</v>
       </c>
@@ -12559,7 +12559,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A194" t="s">
         <v>46</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A195" t="s">
         <v>46</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A196" t="s">
         <v>50</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A197" t="s">
         <v>50</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A198" t="s">
         <v>50</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A199" t="s">
         <v>50</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A200" t="s">
         <v>50</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A201" t="s">
         <v>50</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A202" t="s">
         <v>50</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A203" t="s">
         <v>51</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A204" t="s">
         <v>51</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A205" t="s">
         <v>51</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A206" t="s">
         <v>51</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A207" t="s">
         <v>51</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A208" t="s">
         <v>51</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A209" t="s">
         <v>51</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A210" t="s">
         <v>52</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A211" t="s">
         <v>52</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A212" t="s">
         <v>52</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A213" t="s">
         <v>52</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A214" t="s">
         <v>52</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A215" t="s">
         <v>52</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A216" t="s">
         <v>52</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A217" t="s">
         <v>54</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A218" t="s">
         <v>54</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A219" t="s">
         <v>54</v>
       </c>
@@ -13547,7 +13547,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A220" t="s">
         <v>54</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A221" t="s">
         <v>54</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A222" t="s">
         <v>54</v>
       </c>
@@ -13661,7 +13661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A223" t="s">
         <v>54</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A224" t="s">
         <v>55</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A225" t="s">
         <v>55</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A226" t="s">
         <v>55</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A227" t="s">
         <v>55</v>
       </c>
@@ -13851,7 +13851,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A228" t="s">
         <v>55</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A229" t="s">
         <v>55</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A230" t="s">
         <v>55</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A231" t="s">
         <v>56</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A232" t="s">
         <v>56</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A233" t="s">
         <v>56</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A234" t="s">
         <v>56</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A235" t="s">
         <v>56</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A236" t="s">
         <v>56</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A237" t="s">
         <v>57</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A239" t="s">
         <v>57</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A240" t="s">
         <v>57</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A241" t="s">
         <v>57</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A242" t="s">
         <v>57</v>
       </c>
@@ -14421,7 +14421,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A243" t="s">
         <v>57</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A244" t="s">
         <v>59</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A245" t="s">
         <v>59</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A246" t="s">
         <v>59</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A247" t="s">
         <v>59</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A248" t="s">
         <v>59</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A249" t="s">
         <v>59</v>
       </c>
@@ -14687,7 +14687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A250" t="s">
         <v>59</v>
       </c>
@@ -14725,7 +14725,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A251" t="s">
         <v>60</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A252" t="s">
         <v>60</v>
       </c>
@@ -14801,7 +14801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A253" t="s">
         <v>60</v>
       </c>
@@ -14839,7 +14839,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A254" t="s">
         <v>60</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A255" t="s">
         <v>60</v>
       </c>
@@ -14915,7 +14915,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A256" t="s">
         <v>60</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A257" t="s">
         <v>60</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A258" t="s">
         <v>61</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A259" t="s">
         <v>61</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A260" t="s">
         <v>61</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A261" t="s">
         <v>61</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A262" t="s">
         <v>61</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A263" t="s">
         <v>61</v>
       </c>
@@ -15219,7 +15219,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A264" t="s">
         <v>61</v>
       </c>
@@ -15257,7 +15257,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A265" t="s">
         <v>62</v>
       </c>
@@ -15295,7 +15295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A266" t="s">
         <v>62</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A267" t="s">
         <v>65</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A268" t="s">
         <v>65</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A269" t="s">
         <v>65</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A270" t="s">
         <v>65</v>
       </c>
@@ -15485,7 +15485,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A271" t="s">
         <v>65</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A272" t="s">
         <v>67</v>
       </c>
@@ -15561,7 +15561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A273" t="s">
         <v>67</v>
       </c>
@@ -15599,7 +15599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A274" t="s">
         <v>67</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A275" t="s">
         <v>67</v>
       </c>
@@ -15675,7 +15675,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A276" t="s">
         <v>67</v>
       </c>
@@ -15713,7 +15713,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A277" t="s">
         <v>67</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A278" t="s">
         <v>67</v>
       </c>
@@ -15789,12 +15789,12 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A279" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B279" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C279" t="s">
         <v>15</v>
@@ -15827,12 +15827,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A280" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B280" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C280" t="s">
         <v>15</v>
@@ -15865,12 +15865,12 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A281" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B281" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C281" t="s">
         <v>21</v>
@@ -15903,12 +15903,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A282" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B282" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C282" t="s">
         <v>21</v>
@@ -15941,12 +15941,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A283" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B283" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C283" t="s">
         <v>21</v>
@@ -15979,12 +15979,12 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A284" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B284" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C284" t="s">
         <v>21</v>
@@ -16017,12 +16017,12 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A285" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B285" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C285" t="s">
         <v>25</v>
@@ -16055,12 +16055,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A286" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B286" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C286" t="s">
         <v>25</v>
@@ -16093,12 +16093,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A287" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B287" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C287" t="s">
         <v>25</v>
@@ -16131,12 +16131,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A288" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B288" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C288" t="s">
         <v>25</v>
@@ -16169,12 +16169,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A289" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B289" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C289" t="s">
         <v>25</v>
@@ -16207,12 +16207,12 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A290" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B290" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C290" t="s">
         <v>25</v>
@@ -16245,12 +16245,12 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A291" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B291" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C291" t="s">
         <v>15</v>
@@ -16283,12 +16283,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A292" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B292" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C292" t="s">
         <v>15</v>
@@ -16321,12 +16321,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A293" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B293" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C293" t="s">
         <v>15</v>
@@ -16359,12 +16359,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A294" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B294" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C294" t="s">
         <v>15</v>
@@ -16397,12 +16397,12 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A295" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B295" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C295" t="s">
         <v>21</v>
@@ -16435,12 +16435,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A296" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B296" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C296" t="s">
         <v>21</v>
@@ -16473,12 +16473,12 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A297" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B297" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C297" t="s">
         <v>21</v>
@@ -16511,12 +16511,12 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A298" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B298" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C298" t="s">
         <v>21</v>
@@ -16549,12 +16549,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A299" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B299" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C299" t="s">
         <v>21</v>
@@ -16587,12 +16587,12 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A300" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B300" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C300" t="s">
         <v>25</v>
@@ -16625,12 +16625,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A301" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B301" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C301" t="s">
         <v>25</v>
@@ -16663,12 +16663,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A302" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B302" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C302" t="s">
         <v>25</v>
@@ -16701,12 +16701,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A303" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B303" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C303" t="s">
         <v>25</v>
@@ -16739,12 +16739,12 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A304" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B304" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C304" t="s">
         <v>25</v>
@@ -16777,12 +16777,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A305" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B305" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C305" t="s">
         <v>25</v>
@@ -16815,12 +16815,12 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A306" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B306" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C306" t="s">
         <v>25</v>
@@ -16853,7 +16853,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A307" t="s">
         <v>70</v>
       </c>
@@ -16891,7 +16891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A308" t="s">
         <v>70</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A309" t="s">
         <v>70</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A310" t="s">
         <v>71</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A311" t="s">
         <v>71</v>
       </c>
@@ -17043,7 +17043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A312" t="s">
         <v>71</v>
       </c>
@@ -17081,7 +17081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A313" t="s">
         <v>71</v>
       </c>
@@ -17119,7 +17119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A314" t="s">
         <v>71</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A315" t="s">
         <v>71</v>
       </c>
@@ -17195,7 +17195,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A316" t="s">
         <v>72</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A317" t="s">
         <v>62</v>
       </c>
@@ -17271,7 +17271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A318" t="s">
         <v>62</v>
       </c>
@@ -17309,7 +17309,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A319" t="s">
         <v>62</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A320" t="s">
         <v>65</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A321" t="s">
         <v>65</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A322" t="s">
         <v>65</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A323" t="s">
         <v>65</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A324" t="s">
         <v>65</v>
       </c>
@@ -17537,7 +17537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A325" t="s">
         <v>67</v>
       </c>
@@ -17575,7 +17575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A326" t="s">
         <v>67</v>
       </c>
@@ -17613,7 +17613,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A327" t="s">
         <v>67</v>
       </c>
@@ -17651,7 +17651,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A328" t="s">
         <v>67</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A329" t="s">
         <v>73</v>
       </c>
@@ -17727,7 +17727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A330" t="s">
         <v>73</v>
       </c>
@@ -17765,7 +17765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A331" t="s">
         <v>73</v>
       </c>
@@ -17803,7 +17803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A332" t="s">
         <v>73</v>
       </c>
@@ -17841,7 +17841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A333" t="s">
         <v>73</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A334" t="s">
         <v>73</v>
       </c>
@@ -17917,7 +17917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A335" t="s">
         <v>73</v>
       </c>
@@ -17955,7 +17955,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A336" t="s">
         <v>75</v>
       </c>
@@ -17993,7 +17993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A337" t="s">
         <v>75</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A338" t="s">
         <v>75</v>
       </c>
@@ -18069,7 +18069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A339" t="s">
         <v>75</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A340" t="s">
         <v>76</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A341" t="s">
         <v>76</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A342" t="s">
         <v>76</v>
       </c>
@@ -18221,7 +18221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A343" t="s">
         <v>76</v>
       </c>
@@ -18259,7 +18259,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A344" t="s">
         <v>76</v>
       </c>
@@ -18297,7 +18297,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A345" t="s">
         <v>76</v>
       </c>
@@ -18335,7 +18335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A346" t="s">
         <v>76</v>
       </c>
@@ -18373,7 +18373,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A347" t="s">
         <v>77</v>
       </c>
@@ -18411,7 +18411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A348" t="s">
         <v>77</v>
       </c>
@@ -18449,7 +18449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A349" t="s">
         <v>77</v>
       </c>
@@ -18487,7 +18487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A350" t="s">
         <v>77</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A351" t="s">
         <v>77</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A352" t="s">
         <v>77</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A353" t="s">
         <v>77</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A354" t="s">
         <v>78</v>
       </c>
@@ -18677,7 +18677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A355" t="s">
         <v>78</v>
       </c>
@@ -18715,7 +18715,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A356" t="s">
         <v>78</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A357" t="s">
         <v>79</v>
       </c>
@@ -18791,7 +18791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A358" t="s">
         <v>79</v>
       </c>
@@ -18829,7 +18829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A359" t="s">
         <v>79</v>
       </c>
@@ -18867,7 +18867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A360" t="s">
         <v>79</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A361" t="s">
         <v>79</v>
       </c>
@@ -18943,7 +18943,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A362" t="s">
         <v>79</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A363" t="s">
         <v>80</v>
       </c>
@@ -19019,7 +19019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A364" t="s">
         <v>80</v>
       </c>
@@ -19057,7 +19057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A365" t="s">
         <v>80</v>
       </c>
@@ -19095,7 +19095,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A366" t="s">
         <v>80</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A367" t="s">
         <v>80</v>
       </c>
@@ -19171,7 +19171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A368" t="s">
         <v>80</v>
       </c>
@@ -19209,7 +19209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A369" t="s">
         <v>80</v>
       </c>
@@ -19247,7 +19247,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A370" t="s">
         <v>81</v>
       </c>
@@ -19285,7 +19285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A371" t="s">
         <v>81</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A372" t="s">
         <v>81</v>
       </c>
@@ -19361,7 +19361,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A373" t="s">
         <v>81</v>
       </c>
@@ -19399,7 +19399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A374" t="s">
         <v>83</v>
       </c>
@@ -19437,7 +19437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A375" t="s">
         <v>83</v>
       </c>
@@ -19475,7 +19475,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A376" t="s">
         <v>83</v>
       </c>
@@ -19513,7 +19513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A377" t="s">
         <v>83</v>
       </c>
@@ -19551,7 +19551,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A378" t="s">
         <v>83</v>
       </c>
@@ -19589,12 +19589,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A379" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B379" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C379" t="s">
         <v>15</v>
@@ -19627,12 +19627,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A380" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B380" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C380" t="s">
         <v>15</v>
@@ -19665,12 +19665,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A381" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B381" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C381" t="s">
         <v>15</v>
@@ -19703,12 +19703,12 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A382" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B382" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C382" t="s">
         <v>21</v>
@@ -19741,12 +19741,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A383" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B383" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C383" t="s">
         <v>21</v>
@@ -19779,12 +19779,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A384" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B384" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C384" t="s">
         <v>21</v>
@@ -19817,12 +19817,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A385" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B385" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C385" t="s">
         <v>21</v>
@@ -19855,12 +19855,12 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A386" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B386" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C386" t="s">
         <v>21</v>
@@ -19893,12 +19893,12 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A387" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B387" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C387" t="s">
         <v>21</v>
@@ -19931,12 +19931,12 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A388" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B388" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C388" t="s">
         <v>15</v>
@@ -19969,12 +19969,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A389" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B389" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C389" t="s">
         <v>15</v>
@@ -20007,12 +20007,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A390" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B390" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C390" t="s">
         <v>15</v>
@@ -20045,12 +20045,12 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A391" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B391" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C391" t="s">
         <v>15</v>
@@ -20083,12 +20083,12 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A392" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B392" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C392" t="s">
         <v>21</v>
@@ -20121,12 +20121,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A393" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B393" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C393" t="s">
         <v>21</v>
@@ -20159,12 +20159,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A394" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B394" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C394" t="s">
         <v>21</v>
@@ -20197,12 +20197,12 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A395" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B395" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C395" t="s">
         <v>21</v>
@@ -20235,12 +20235,12 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A396" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B396" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C396" t="s">
         <v>21</v>
@@ -20273,7 +20273,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A397" t="s">
         <v>85</v>
       </c>
@@ -20311,7 +20311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A398" t="s">
         <v>85</v>
       </c>
@@ -20349,7 +20349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A399" t="s">
         <v>85</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A400" t="s">
         <v>85</v>
       </c>
@@ -20425,7 +20425,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A401" t="s">
         <v>86</v>
       </c>
@@ -20463,7 +20463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A402" t="s">
         <v>86</v>
       </c>
@@ -20501,7 +20501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A403" t="s">
         <v>86</v>
       </c>
@@ -20539,7 +20539,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A404" t="s">
         <v>86</v>
       </c>
@@ -20577,7 +20577,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A405" t="s">
         <v>86</v>
       </c>
@@ -20615,7 +20615,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A406" t="s">
         <v>81</v>
       </c>
@@ -20653,7 +20653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A407" t="s">
         <v>81</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A408" t="s">
         <v>81</v>
       </c>
@@ -20729,7 +20729,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A409" t="s">
         <v>81</v>
       </c>
@@ -20767,7 +20767,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A410" t="s">
         <v>83</v>
       </c>
@@ -20805,7 +20805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A411" t="s">
         <v>83</v>
       </c>
@@ -20843,7 +20843,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A412" t="s">
         <v>83</v>
       </c>
@@ -20881,7 +20881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A413" t="s">
         <v>83</v>
       </c>
@@ -20919,7 +20919,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A414" t="s">
         <v>83</v>
       </c>
@@ -20957,7 +20957,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A415" t="s">
         <v>83</v>
       </c>
@@ -20995,7 +20995,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A416" t="s">
         <v>87</v>
       </c>
@@ -21033,7 +21033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A417" t="s">
         <v>87</v>
       </c>
@@ -21071,7 +21071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A418" t="s">
         <v>87</v>
       </c>
@@ -21109,7 +21109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A419" t="s">
         <v>87</v>
       </c>
@@ -21147,7 +21147,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A420" t="s">
         <v>88</v>
       </c>
@@ -21185,7 +21185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A421" t="s">
         <v>88</v>
       </c>
@@ -21223,7 +21223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A422" t="s">
         <v>88</v>
       </c>
@@ -21261,7 +21261,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A423" t="s">
         <v>88</v>
       </c>
@@ -21299,7 +21299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A424" t="s">
         <v>88</v>
       </c>
@@ -21337,7 +21337,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A425" t="s">
         <v>88</v>
       </c>
@@ -21375,7 +21375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A426" t="s">
         <v>89</v>
       </c>
@@ -21413,7 +21413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A427" t="s">
         <v>89</v>
       </c>
@@ -21451,7 +21451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A428" t="s">
         <v>89</v>
       </c>
@@ -21489,7 +21489,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A429" t="s">
         <v>89</v>
       </c>
@@ -21527,7 +21527,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A430" t="s">
         <v>89</v>
       </c>
@@ -21565,7 +21565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A431" t="s">
         <v>90</v>
       </c>
@@ -21603,7 +21603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A432" t="s">
         <v>90</v>
       </c>
@@ -21641,7 +21641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A433" t="s">
         <v>90</v>
       </c>
@@ -21679,7 +21679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A434" t="s">
         <v>90</v>
       </c>
@@ -21717,7 +21717,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A435" t="s">
         <v>90</v>
       </c>
@@ -21755,7 +21755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A436" t="s">
         <v>90</v>
       </c>
@@ -21793,7 +21793,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A437" t="s">
         <v>91</v>
       </c>
@@ -21831,7 +21831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A438" t="s">
         <v>91</v>
       </c>
@@ -21869,7 +21869,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A439" t="s">
         <v>91</v>
       </c>
@@ -21907,7 +21907,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A440" t="s">
         <v>91</v>
       </c>
@@ -21945,7 +21945,7 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A441" t="s">
         <v>92</v>
       </c>
@@ -21983,7 +21983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A442" t="s">
         <v>92</v>
       </c>
@@ -22021,7 +22021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A443" t="s">
         <v>92</v>
       </c>
@@ -22059,7 +22059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A444" t="s">
         <v>92</v>
       </c>
@@ -22097,7 +22097,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A445" t="s">
         <v>92</v>
       </c>
@@ -22135,7 +22135,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A446" t="s">
         <v>92</v>
       </c>
@@ -22173,7 +22173,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A447" t="s">
         <v>93</v>
       </c>
@@ -22211,7 +22211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A448" t="s">
         <v>93</v>
       </c>
@@ -22249,7 +22249,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A449" t="s">
         <v>93</v>
       </c>
@@ -22287,7 +22287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A450" t="s">
         <v>93</v>
       </c>
@@ -22325,7 +22325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A451" t="s">
         <v>94</v>
       </c>
@@ -22363,7 +22363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A452" t="s">
         <v>94</v>
       </c>
@@ -22401,7 +22401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A453" t="s">
         <v>94</v>
       </c>
@@ -22439,7 +22439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A454" t="s">
         <v>94</v>
       </c>
@@ -22477,7 +22477,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A455" t="s">
         <v>94</v>
       </c>
@@ -22515,7 +22515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A456" t="s">
         <v>94</v>
       </c>
@@ -22553,7 +22553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A457" t="s">
         <v>95</v>
       </c>
@@ -22591,7 +22591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A458" t="s">
         <v>95</v>
       </c>
@@ -22629,7 +22629,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A459" t="s">
         <v>95</v>
       </c>
@@ -22667,7 +22667,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A460" t="s">
         <v>95</v>
       </c>
@@ -22705,7 +22705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A461" t="s">
         <v>96</v>
       </c>
@@ -22743,7 +22743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A462" t="s">
         <v>96</v>
       </c>
@@ -22781,7 +22781,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A463" t="s">
         <v>96</v>
       </c>
@@ -22819,7 +22819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A464" t="s">
         <v>96</v>
       </c>
@@ -22857,7 +22857,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A465" t="s">
         <v>96</v>
       </c>
@@ -22895,7 +22895,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A466" t="s">
         <v>96</v>
       </c>
@@ -22933,7 +22933,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A467" t="s">
         <v>97</v>
       </c>
@@ -22971,7 +22971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A468" t="s">
         <v>97</v>
       </c>
@@ -23009,7 +23009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A469" t="s">
         <v>97</v>
       </c>
@@ -23047,7 +23047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A470" t="s">
         <v>97</v>
       </c>
@@ -23085,7 +23085,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A471" t="s">
         <v>97</v>
       </c>
@@ -23123,7 +23123,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A472" t="s">
         <v>97</v>
       </c>
@@ -23161,7 +23161,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A473" t="s">
         <v>97</v>
       </c>
@@ -23199,7 +23199,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A474" t="s">
         <v>99</v>
       </c>
@@ -23237,7 +23237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A475" t="s">
         <v>99</v>
       </c>
@@ -23275,7 +23275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A476" t="s">
         <v>99</v>
       </c>
@@ -23313,7 +23313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A477" t="s">
         <v>99</v>
       </c>
@@ -23351,7 +23351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A478" t="s">
         <v>99</v>
       </c>
@@ -23389,7 +23389,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A479" t="s">
         <v>99</v>
       </c>
@@ -23427,7 +23427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A480" t="s">
         <v>99</v>
       </c>
@@ -23465,12 +23465,12 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A481" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B481" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C481" t="s">
         <v>15</v>
@@ -23503,12 +23503,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A482" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B482" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C482" t="s">
         <v>15</v>
@@ -23541,12 +23541,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A483" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B483" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C483" t="s">
         <v>15</v>
@@ -23579,12 +23579,12 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A484" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B484" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C484" t="s">
         <v>15</v>
@@ -23617,12 +23617,12 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A485" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B485" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C485" t="s">
         <v>15</v>
@@ -23655,12 +23655,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A486" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B486" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C486" t="s">
         <v>15</v>
@@ -23693,12 +23693,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A487" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B487" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C487" t="s">
         <v>15</v>
@@ -23731,12 +23731,12 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A488" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B488" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C488" t="s">
         <v>21</v>
@@ -23769,12 +23769,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A489" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B489" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C489" t="s">
         <v>21</v>
@@ -23807,12 +23807,12 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A490" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B490" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C490" t="s">
         <v>21</v>
@@ -23845,12 +23845,12 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A491" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B491" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C491" t="s">
         <v>21</v>
@@ -23883,12 +23883,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A492" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B492" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C492" t="s">
         <v>21</v>
@@ -23921,12 +23921,12 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A493" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B493" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C493" t="s">
         <v>21</v>
@@ -23959,12 +23959,12 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A494" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B494" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C494" t="s">
         <v>15</v>
@@ -23997,12 +23997,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A495" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B495" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C495" t="s">
         <v>15</v>
@@ -24035,12 +24035,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A496" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B496" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C496" t="s">
         <v>15</v>
@@ -24073,12 +24073,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A497" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B497" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C497" t="s">
         <v>15</v>
@@ -24111,12 +24111,12 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A498" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B498" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C498" t="s">
         <v>15</v>
@@ -24149,12 +24149,12 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A499" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B499" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C499" t="s">
         <v>15</v>
@@ -24187,12 +24187,12 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A500" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B500" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C500" t="s">
         <v>15</v>
@@ -24225,12 +24225,12 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A501" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B501" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C501" t="s">
         <v>21</v>
@@ -24263,12 +24263,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A502" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B502" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C502" t="s">
         <v>21</v>
@@ -24301,12 +24301,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A503" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B503" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C503" t="s">
         <v>21</v>
@@ -24339,12 +24339,12 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A504" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B504" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C504" t="s">
         <v>21</v>
@@ -24377,12 +24377,12 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A505" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B505" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C505" t="s">
         <v>21</v>
@@ -24415,12 +24415,12 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A506" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B506" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C506" t="s">
         <v>21</v>
@@ -24453,12 +24453,12 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A507" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B507" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C507" t="s">
         <v>21</v>
@@ -24491,7 +24491,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A508" t="s">
         <v>100</v>
       </c>
@@ -24529,7 +24529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A509" t="s">
         <v>100</v>
       </c>
@@ -24567,7 +24567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A510" t="s">
         <v>100</v>
       </c>
@@ -24605,7 +24605,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A511" t="s">
         <v>100</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A512" t="s">
         <v>100</v>
       </c>
@@ -24681,7 +24681,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A513" t="s">
         <v>100</v>
       </c>
@@ -24719,7 +24719,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A514" t="s">
         <v>100</v>
       </c>
@@ -24757,7 +24757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A515" t="s">
         <v>101</v>
       </c>
@@ -24795,7 +24795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A516" t="s">
         <v>101</v>
       </c>
@@ -24833,7 +24833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A517" t="s">
         <v>101</v>
       </c>
@@ -24871,7 +24871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A518" t="s">
         <v>101</v>
       </c>
@@ -24909,7 +24909,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A519" t="s">
         <v>101</v>
       </c>
@@ -24947,7 +24947,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A520" t="s">
         <v>101</v>
       </c>
@@ -24985,7 +24985,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A521" t="s">
         <v>101</v>
       </c>
@@ -25023,7 +25023,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A522" t="s">
         <v>97</v>
       </c>
@@ -25061,7 +25061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A523" t="s">
         <v>97</v>
       </c>
@@ -25099,7 +25099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A524" t="s">
         <v>97</v>
       </c>
@@ -25137,7 +25137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A525" t="s">
         <v>97</v>
       </c>
@@ -25175,7 +25175,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A526" t="s">
         <v>97</v>
       </c>
@@ -25213,7 +25213,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A527" t="s">
         <v>97</v>
       </c>
@@ -25251,7 +25251,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A528" t="s">
         <v>97</v>
       </c>
@@ -25289,7 +25289,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A529" t="s">
         <v>99</v>
       </c>
@@ -25327,7 +25327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A530" t="s">
         <v>99</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A531" t="s">
         <v>99</v>
       </c>
@@ -25403,7 +25403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A532" t="s">
         <v>99</v>
       </c>
@@ -25441,7 +25441,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A533" t="s">
         <v>99</v>
       </c>
@@ -25479,7 +25479,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A534" t="s">
         <v>99</v>
       </c>
@@ -25517,7 +25517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A535" t="s">
         <v>102</v>
       </c>
@@ -25555,7 +25555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A536" t="s">
         <v>102</v>
       </c>
@@ -25593,7 +25593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A537" t="s">
         <v>102</v>
       </c>
@@ -25631,7 +25631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A538" t="s">
         <v>102</v>
       </c>
@@ -25669,7 +25669,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A539" t="s">
         <v>102</v>
       </c>
@@ -25707,7 +25707,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A540" t="s">
         <v>102</v>
       </c>
@@ -25745,7 +25745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A541" t="s">
         <v>103</v>
       </c>
@@ -25783,7 +25783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A542" t="s">
         <v>103</v>
       </c>
@@ -25821,7 +25821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A543" t="s">
         <v>103</v>
       </c>
@@ -25859,7 +25859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A544" t="s">
         <v>103</v>
       </c>
@@ -25897,7 +25897,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A545" t="s">
         <v>103</v>
       </c>
@@ -25935,7 +25935,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A546" t="s">
         <v>103</v>
       </c>
@@ -25973,7 +25973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A547" t="s">
         <v>103</v>
       </c>
@@ -26011,7 +26011,7 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A548" t="s">
         <v>104</v>
       </c>
@@ -26049,7 +26049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A549" t="s">
         <v>104</v>
       </c>
@@ -26087,7 +26087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A550" t="s">
         <v>104</v>
       </c>
@@ -26125,7 +26125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A551" t="s">
         <v>104</v>
       </c>
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A552" t="s">
         <v>104</v>
       </c>
@@ -26201,7 +26201,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A553" t="s">
         <v>104</v>
       </c>
@@ -26239,7 +26239,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A554" t="s">
         <v>104</v>
       </c>
@@ -26277,7 +26277,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A555" t="s">
         <v>105</v>
       </c>
@@ -26315,7 +26315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A556" t="s">
         <v>105</v>
       </c>
@@ -26353,7 +26353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A557" t="s">
         <v>105</v>
       </c>
@@ -26391,7 +26391,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A558" t="s">
         <v>105</v>
       </c>
@@ -26429,7 +26429,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A559" t="s">
         <v>105</v>
       </c>
@@ -26467,7 +26467,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A560" t="s">
         <v>105</v>
       </c>
@@ -26505,7 +26505,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A561" t="s">
         <v>105</v>
       </c>
@@ -26543,7 +26543,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A562" t="s">
         <v>106</v>
       </c>
@@ -26581,7 +26581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A563" t="s">
         <v>106</v>
       </c>
@@ -26619,7 +26619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A564" t="s">
         <v>106</v>
       </c>
@@ -26657,7 +26657,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A565" t="s">
         <v>106</v>
       </c>
@@ -26695,7 +26695,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A566" t="s">
         <v>106</v>
       </c>
@@ -26733,7 +26733,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A567" t="s">
         <v>106</v>
       </c>
@@ -26771,7 +26771,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A568" t="s">
         <v>106</v>
       </c>
@@ -26809,7 +26809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A569" t="s">
         <v>107</v>
       </c>
@@ -26847,7 +26847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A570" t="s">
         <v>107</v>
       </c>
@@ -26885,7 +26885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A571" t="s">
         <v>107</v>
       </c>
@@ -26923,7 +26923,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A572" t="s">
         <v>107</v>
       </c>
@@ -26961,7 +26961,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A573" t="s">
         <v>107</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A574" t="s">
         <v>107</v>
       </c>
@@ -27037,7 +27037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A575" t="s">
         <v>107</v>
       </c>
@@ -27075,7 +27075,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A576" t="s">
         <v>108</v>
       </c>
@@ -27113,7 +27113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A577" t="s">
         <v>108</v>
       </c>
@@ -27151,7 +27151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A578" t="s">
         <v>108</v>
       </c>
@@ -27189,7 +27189,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A579" t="s">
         <v>108</v>
       </c>
@@ -27227,7 +27227,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A580" t="s">
         <v>108</v>
       </c>
@@ -27265,7 +27265,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A581" t="s">
         <v>108</v>
       </c>
@@ -27303,7 +27303,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A582" t="s">
         <v>108</v>
       </c>
@@ -27341,7 +27341,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A583" t="s">
         <v>109</v>
       </c>
@@ -27379,7 +27379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A584" t="s">
         <v>109</v>
       </c>
@@ -27417,7 +27417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A585" t="s">
         <v>109</v>
       </c>
@@ -27455,7 +27455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A586" t="s">
         <v>109</v>
       </c>
@@ -27493,7 +27493,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A587" t="s">
         <v>109</v>
       </c>
@@ -27531,7 +27531,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A588" t="s">
         <v>109</v>
       </c>
@@ -27569,7 +27569,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A589" t="s">
         <v>109</v>
       </c>
@@ -27607,7 +27607,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A590" t="s">
         <v>110</v>
       </c>
@@ -27645,7 +27645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A591" t="s">
         <v>110</v>
       </c>
@@ -27683,7 +27683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A592" t="s">
         <v>110</v>
       </c>
@@ -27721,7 +27721,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A593" t="s">
         <v>110</v>
       </c>
@@ -27759,7 +27759,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A594" t="s">
         <v>110</v>
       </c>
@@ -27797,7 +27797,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A595" t="s">
         <v>110</v>
       </c>
@@ -27835,7 +27835,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A596" t="s">
         <v>111</v>
       </c>
@@ -27873,7 +27873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A597" t="s">
         <v>111</v>
       </c>
@@ -27911,7 +27911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A598" t="s">
         <v>111</v>
       </c>
@@ -27949,7 +27949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A599" t="s">
         <v>111</v>
       </c>
@@ -27987,7 +27987,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A600" t="s">
         <v>111</v>
       </c>
@@ -28025,7 +28025,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A601" t="s">
         <v>111</v>
       </c>
@@ -28063,7 +28063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A602" t="s">
         <v>111</v>
       </c>
